--- a/Data/Excels/Levels.xlsx
+++ b/Data/Excels/Levels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>LevelID</t>
   </si>
@@ -139,18 +139,48 @@
     <t>LevelName</t>
   </si>
   <si>
+    <t>SpawnPoint</t>
+  </si>
+  <si>
+    <t>EndPoint</t>
+  </si>
+  <si>
+    <t>ConstAgencys</t>
+  </si>
+  <si>
+    <t>StarPoint</t>
+  </si>
+  <si>
+    <t>Agencys</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>Vec2</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>[]Vec2</t>
+  </si>
+  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
   <si>
     <t>MakeIndex:true</t>
   </si>
   <si>
+    <t>ListSpliter: "|"</t>
+  </si>
+  <si>
+    <t>ListSpliter: ","</t>
+  </si>
+  <si>
     <t>关卡唯一ID</t>
   </si>
   <si>
@@ -160,52 +190,160 @@
     <t>关卡名</t>
   </si>
   <si>
+    <t>关卡球出生点</t>
+  </si>
+  <si>
+    <t>关卡结束点</t>
+  </si>
+  <si>
+    <t>固定生成的机关ID</t>
+  </si>
+  <si>
+    <t>星星的位置</t>
+  </si>
+  <si>
+    <t>关卡可用的机关ID</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
     <t>第1关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.71</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.603</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
     <t>第2关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.72</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.604</t>
+  </si>
+  <si>
     <t>第3关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.73</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.605</t>
+  </si>
+  <si>
     <t>第4关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.74</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.606</t>
+  </si>
+  <si>
     <t>第5关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.75</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.607</t>
+  </si>
+  <si>
     <t>第6关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.76</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.608</t>
+  </si>
+  <si>
     <t>第7关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.77</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.609</t>
+  </si>
+  <si>
     <t>第8关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.78</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.610</t>
+  </si>
+  <si>
     <t>第9关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.79</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.611</t>
+  </si>
+  <si>
     <t>第10关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.80</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.612</t>
+  </si>
+  <si>
     <t>第11关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.81</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.613</t>
+  </si>
+  <si>
     <t>第12关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.82</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.614</t>
+  </si>
+  <si>
     <t>第13关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.83</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.615</t>
+  </si>
+  <si>
     <t>第14关</t>
   </si>
   <si>
+    <t>X: -9.714 Y:4.84</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.616</t>
+  </si>
+  <si>
     <t>第15关</t>
+  </si>
+  <si>
+    <t>X: -9.714 Y:4.85</t>
+  </si>
+  <si>
+    <t>X: 9.332 Y:-5.617</t>
   </si>
   <si>
     <t>TableName: "Levels" Package: "table"</t>
@@ -291,28 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +445,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -349,6 +520,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -356,34 +535,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,45 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,187 +598,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +822,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -709,6 +867,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -725,47 +898,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,10 +912,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,133 +924,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,7 +1389,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1278,11 +1416,21 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1290,22 +1438,32 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1313,18 +1471,24 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1332,20 +1496,30 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1359,16 +1533,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1382,16 +1562,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -1405,16 +1590,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1428,16 +1619,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -1451,16 +1648,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -1474,16 +1677,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1497,22 +1706,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1520,13 +1735,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1534,13 +1758,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1548,13 +1781,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1562,13 +1804,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1576,13 +1827,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1590,13 +1850,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1604,13 +1873,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1618,10 +1896,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1645,53 +1932,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excels/Levels.xlsx
+++ b/Data/Excels/Levels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>LevelID</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
-  </si>
-  <si>
-    <t>MakeIndex:true</t>
   </si>
   <si>
     <t>ListSpliter: "|"</t>
@@ -397,9 +394,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -429,7 +426,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,135 +569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -598,25 +595,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,43 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,109 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,30 +804,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -842,17 +815,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +871,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -912,10 +909,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,133 +921,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,7 +1386,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1473,21 +1470,19 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -1496,29 +1491,29 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -1533,21 +1528,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -1562,20 +1557,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G6"/>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -1590,21 +1585,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -1619,21 +1614,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -1648,21 +1643,21 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -1677,21 +1672,21 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -1706,21 +1701,21 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -1735,19 +1730,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1758,19 +1753,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1781,19 +1776,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1804,19 +1799,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1827,19 +1822,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1850,19 +1845,19 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1873,19 +1868,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1896,19 +1891,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1932,53 +1927,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excels/Levels.xlsx
+++ b/Data/Excels/Levels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>第1关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.71</t>
+    <t>X: -8.23 Y:4.71</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.603</t>
@@ -220,7 +220,7 @@
     <t>第2关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.72</t>
+    <t>X: -8.23 Y:4.72</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.604</t>
@@ -229,7 +229,7 @@
     <t>第3关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.73</t>
+    <t>X: -8.23 Y:4.73</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.605</t>
@@ -238,7 +238,7 @@
     <t>第4关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.74</t>
+    <t>X: -8.23 Y:4.74</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.606</t>
@@ -247,7 +247,7 @@
     <t>第5关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.75</t>
+    <t>X: -8.23 Y:4.75</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.607</t>
@@ -256,7 +256,7 @@
     <t>第6关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.76</t>
+    <t>X: -8.23 Y:4.76</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.608</t>
@@ -265,7 +265,7 @@
     <t>第7关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.77</t>
+    <t>X: -8.23 Y:4.77</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.609</t>
@@ -274,7 +274,7 @@
     <t>第8关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.78</t>
+    <t>X: -8.23 Y:4.78</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.610</t>
@@ -283,7 +283,7 @@
     <t>第9关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.79</t>
+    <t>X: -8.23 Y:4.79</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.611</t>
@@ -292,7 +292,7 @@
     <t>第10关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.80</t>
+    <t>X: -8.23 Y:4.80</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.612</t>
@@ -301,7 +301,7 @@
     <t>第11关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.81</t>
+    <t>X: -8.23 Y:4.81</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.613</t>
@@ -310,7 +310,7 @@
     <t>第12关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.82</t>
+    <t>X: -8.23 Y:4.82</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.614</t>
@@ -319,7 +319,7 @@
     <t>第13关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.83</t>
+    <t>X: -8.23 Y:4.83</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.615</t>
@@ -328,7 +328,7 @@
     <t>第14关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.84</t>
+    <t>X: -8.23 Y:4.84</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.616</t>
@@ -337,7 +337,7 @@
     <t>第15关</t>
   </si>
   <si>
-    <t>X: -9.714 Y:4.85</t>
+    <t>X: -8.23 Y:4.85</t>
   </si>
   <si>
     <t>X: 9.332 Y:-5.617</t>
@@ -394,9 +394,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -425,6 +425,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -433,7 +449,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,113 +548,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,6 +562,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -595,13 +595,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,169 +757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,35 +800,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,8 +837,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +892,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,10 +909,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,133 +921,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,7 +1386,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
